--- a/data/trans_orig/P47A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P47A-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>40093</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28694</v>
+        <v>28733</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55331</v>
+        <v>55643</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03899458532042593</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02790751666687822</v>
+        <v>0.02794554253137913</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05381476407143171</v>
+        <v>0.05411797959208333</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -765,19 +765,19 @@
         <v>26341</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16901</v>
+        <v>17234</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37187</v>
+        <v>37490</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02010719659062008</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01290121544084433</v>
+        <v>0.01315566209667641</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02838657740483912</v>
+        <v>0.02861758044991094</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>62</v>
@@ -786,19 +786,19 @@
         <v>66434</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49886</v>
+        <v>51307</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>84068</v>
+        <v>85245</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02841254725089229</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02133516718537065</v>
+        <v>0.02194294536359962</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03595422915759309</v>
+        <v>0.03645733816407508</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>582498</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>550121</v>
+        <v>551443</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>613616</v>
+        <v>613668</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5665340379889073</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5350441553785497</v>
+        <v>0.536330347561753</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5967990005096061</v>
+        <v>0.5968500567438054</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>548</v>
@@ -836,19 +836,19 @@
         <v>559107</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>526224</v>
+        <v>524512</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>594135</v>
+        <v>592535</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4267908237748757</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4016897983817289</v>
+        <v>0.4003830261160238</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4535296358441729</v>
+        <v>0.452307963088486</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1132</v>
@@ -857,19 +857,19 @@
         <v>1141604</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1095704</v>
+        <v>1095937</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1187578</v>
+        <v>1191527</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4882401015466367</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4686097129476217</v>
+        <v>0.46870913713179</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5079023926211546</v>
+        <v>0.50959098551211</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>294716</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>270183</v>
+        <v>266353</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>323891</v>
+        <v>323833</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2866391602153905</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2627788120213159</v>
+        <v>0.2590532840306768</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3150141357482387</v>
+        <v>0.3149579989374933</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>452</v>
@@ -907,19 +907,19 @@
         <v>461399</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>426618</v>
+        <v>428352</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>497847</v>
+        <v>497762</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3522061956568123</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3256563666018343</v>
+        <v>0.3269798925842301</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3800286019041713</v>
+        <v>0.3799638320084889</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>755</v>
@@ -928,19 +928,19 @@
         <v>756115</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>714980</v>
+        <v>708003</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>802224</v>
+        <v>801370</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3233744058903346</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3057817693367345</v>
+        <v>0.3027982122099842</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3430944444047169</v>
+        <v>0.3427292337847977</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>110871</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>92477</v>
+        <v>92646</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>130807</v>
+        <v>133373</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1078322164752762</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08994258464506387</v>
+        <v>0.09010663759401694</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1272223629004358</v>
+        <v>0.1297179782059583</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>260</v>
@@ -978,19 +978,19 @@
         <v>263178</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>237564</v>
+        <v>237019</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>292637</v>
+        <v>292427</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2008957839776919</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1813432032482729</v>
+        <v>0.1809273408670913</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.223382909055722</v>
+        <v>0.2232226019206092</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>371</v>
@@ -999,19 +999,19 @@
         <v>374049</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>340397</v>
+        <v>336869</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>410414</v>
+        <v>409916</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1599729453121364</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1455805038051952</v>
+        <v>0.1440716868250106</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1755253484492304</v>
+        <v>0.1753123572940722</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>71850</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>57562</v>
+        <v>56779</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>92774</v>
+        <v>90580</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04247335659602981</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03402687823773549</v>
+        <v>0.03356443025369171</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05484209439713924</v>
+        <v>0.0535455117321525</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>64</v>
@@ -1124,19 +1124,19 @@
         <v>67863</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>51763</v>
+        <v>52696</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>86785</v>
+        <v>88123</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04276526082691957</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03261957825386302</v>
+        <v>0.03320724667305117</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05468914322800499</v>
+        <v>0.05553240480554748</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>134</v>
@@ -1145,19 +1145,19 @@
         <v>139713</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>117804</v>
+        <v>118404</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>163954</v>
+        <v>165210</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04261464436336172</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03593201052257113</v>
+        <v>0.03611504907899388</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05000840092620003</v>
+        <v>0.05039148215761169</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>1104114</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1059775</v>
+        <v>1063326</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1141692</v>
+        <v>1142894</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6526853139462059</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6264746572781528</v>
+        <v>0.6285734332331516</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6748989993696892</v>
+        <v>0.6756096233299744</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>931</v>
@@ -1195,19 +1195,19 @@
         <v>949862</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>911776</v>
+        <v>911839</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>984902</v>
+        <v>987933</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5985743744071044</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5745737325481298</v>
+        <v>0.5746138991588989</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6206560991709572</v>
+        <v>0.6225656815517107</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2001</v>
@@ -1216,19 +1216,19 @@
         <v>2053976</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2000626</v>
+        <v>1999206</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2109471</v>
+        <v>2104595</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6264944848088286</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6102219474382893</v>
+        <v>0.6097889285732981</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6434214793063119</v>
+        <v>0.6419341504334589</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>426151</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>393522</v>
+        <v>389512</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>464998</v>
+        <v>460880</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2519147179617259</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2326264385912207</v>
+        <v>0.2302559372846192</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2748785716430641</v>
+        <v>0.2724440412445613</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>425</v>
@@ -1266,19 +1266,19 @@
         <v>433332</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>402434</v>
+        <v>398801</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>468490</v>
+        <v>469753</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2730728567689928</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2536018325363196</v>
+        <v>0.2513127102120362</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2952282573470053</v>
+        <v>0.2960242350141931</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>841</v>
@@ -1287,19 +1287,19 @@
         <v>859483</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>809250</v>
+        <v>809610</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>910025</v>
+        <v>909559</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2621557007109832</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2468336836791477</v>
+        <v>0.2469435957741608</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2775717084887604</v>
+        <v>0.2774296750256707</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>89533</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>72058</v>
+        <v>73213</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>109660</v>
+        <v>111462</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05292661149603844</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04259656435171214</v>
+        <v>0.0432791066726094</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06482445410248257</v>
+        <v>0.065889688424559</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>133</v>
@@ -1337,19 +1337,19 @@
         <v>135817</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>114004</v>
+        <v>114897</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>158087</v>
+        <v>161794</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08558750799698314</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07184221076401021</v>
+        <v>0.07240494056446022</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09962148543559968</v>
+        <v>0.101957595415019</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>224</v>
@@ -1358,19 +1358,19 @@
         <v>225350</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>198958</v>
+        <v>196753</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>257588</v>
+        <v>256884</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06873517011682653</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06068539449944412</v>
+        <v>0.0600126164573703</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07856845996752215</v>
+        <v>0.07835371070368886</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>29881</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>20179</v>
+        <v>20242</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>42497</v>
+        <v>42778</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05418950349490847</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03659553693285777</v>
+        <v>0.03671052672669292</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07706912636851548</v>
+        <v>0.07757897705040863</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -1483,19 +1483,19 @@
         <v>20613</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13123</v>
+        <v>12728</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31135</v>
+        <v>30792</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04344735047190949</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02765949814607609</v>
+        <v>0.02682694169519389</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06562625198249254</v>
+        <v>0.06490239216478323</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>47</v>
@@ -1504,19 +1504,19 @@
         <v>50493</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>38667</v>
+        <v>37420</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>65786</v>
+        <v>65291</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04922143831890316</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0376926226705569</v>
+        <v>0.03647746408082021</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06412857823240323</v>
+        <v>0.06364614269656806</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>355320</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>330802</v>
+        <v>331690</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>376901</v>
+        <v>377793</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.6443876149265825</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.599921625304444</v>
+        <v>0.6015331987850424</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6835252418676612</v>
+        <v>0.6851424233029789</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>296</v>
@@ -1554,19 +1554,19 @@
         <v>312123</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>289648</v>
+        <v>290780</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>332501</v>
+        <v>332161</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.6578846133927975</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.6105123751272281</v>
+        <v>0.612898357417447</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.7008347503019661</v>
+        <v>0.7001180433857683</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>636</v>
@@ -1575,19 +1575,19 @@
         <v>667444</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>636718</v>
+        <v>636768</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>699951</v>
+        <v>699390</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.6506297498055994</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.6206779280865007</v>
+        <v>0.6207267941398792</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.6823176314899815</v>
+        <v>0.6817711293891118</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>140537</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>121498</v>
+        <v>121106</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>167391</v>
+        <v>162790</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2548692900353199</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2203413496396963</v>
+        <v>0.2196297748326061</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3035709156279123</v>
+        <v>0.2952257604607595</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>104</v>
@@ -1625,19 +1625,19 @@
         <v>110650</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>92528</v>
+        <v>93232</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>130993</v>
+        <v>129459</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2332240623938545</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1950270626282095</v>
+        <v>0.1965122825212157</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2761036582014827</v>
+        <v>0.2728695636482928</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>241</v>
@@ -1646,19 +1646,19 @@
         <v>251187</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>224438</v>
+        <v>223518</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>279192</v>
+        <v>279174</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2448587361508203</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2187839215739821</v>
+        <v>0.2178869233780591</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2721586297709254</v>
+        <v>0.2721409132074189</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>25670</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16712</v>
+        <v>16920</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37889</v>
+        <v>40548</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04655359154318917</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03030723199796355</v>
+        <v>0.03068532420576196</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06871314749809612</v>
+        <v>0.07353484911913399</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>30</v>
@@ -1696,19 +1696,19 @@
         <v>31049</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>21014</v>
+        <v>21799</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>41853</v>
+        <v>43221</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06544397374143855</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04429321215043632</v>
+        <v>0.04594775671509622</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0882158640403279</v>
+        <v>0.0910994176948059</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>53</v>
@@ -1717,19 +1717,19 @@
         <v>56719</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>42202</v>
+        <v>42651</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>73106</v>
+        <v>72351</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0552900757246771</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04113915783109735</v>
+        <v>0.04157669764668021</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07126447532967865</v>
+        <v>0.07052792029362349</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>141824</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>117942</v>
+        <v>117278</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>167729</v>
+        <v>166063</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04335485313674091</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03605416483611861</v>
+        <v>0.03585143879548667</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0512738520972803</v>
+        <v>0.05076453710266586</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>110</v>
@@ -1842,19 +1842,19 @@
         <v>114817</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>94178</v>
+        <v>94198</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>137270</v>
+        <v>140127</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03405683216609888</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02793500555353912</v>
+        <v>0.02794102178328567</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0407168668019091</v>
+        <v>0.04156420056862927</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>243</v>
@@ -1863,19 +1863,19 @@
         <v>256641</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>227370</v>
+        <v>224685</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>288879</v>
+        <v>286928</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03863578512317884</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03422929683676845</v>
+        <v>0.03382499069489418</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04348899485765501</v>
+        <v>0.04319540260937982</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>2041932</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1983102</v>
+        <v>1980938</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2098477</v>
+        <v>2092302</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6242085308076787</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6062244261950215</v>
+        <v>0.6055628059042453</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.641494027163959</v>
+        <v>0.6396063425715641</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1775</v>
@@ -1913,19 +1913,19 @@
         <v>1821092</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1763135</v>
+        <v>1765786</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1879209</v>
+        <v>1876598</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5401696410240486</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5229784998463554</v>
+        <v>0.5237648024248271</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5574082955944029</v>
+        <v>0.5566338867254826</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3769</v>
@@ -1934,19 +1934,19 @@
         <v>3863024</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3776829</v>
+        <v>3774187</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3939994</v>
+        <v>3936819</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5815558805366811</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5685796177019516</v>
+        <v>0.568181910622988</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5931431517340262</v>
+        <v>0.5926652399768053</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>861404</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>806480</v>
+        <v>815661</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>911393</v>
+        <v>914272</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2633269449588718</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2465368299820196</v>
+        <v>0.2493435108281588</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2786082639008993</v>
+        <v>0.2794883190594998</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>981</v>
@@ -1984,19 +1984,19 @@
         <v>1005380</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>950507</v>
+        <v>954020</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1055931</v>
+        <v>1057835</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2982145283940564</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2819379586057656</v>
+        <v>0.282979967333841</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3132088157115718</v>
+        <v>0.313773430746067</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1837</v>
@@ -2005,19 +2005,19 @@
         <v>1866785</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1793476</v>
+        <v>1794205</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1941153</v>
+        <v>1936918</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2810336031369173</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2699973481115659</v>
+        <v>0.2701072043226206</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2922292952443292</v>
+        <v>0.2915917137879323</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>226074</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>200235</v>
+        <v>201000</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>256956</v>
+        <v>259571</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06910967109670856</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06121081575713495</v>
+        <v>0.06144475440780822</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07855003286656895</v>
+        <v>0.07934963685769315</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>423</v>
@@ -2055,19 +2055,19 @@
         <v>430044</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>393004</v>
+        <v>393049</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>469339</v>
+        <v>470837</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1275589984157961</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1165723180942949</v>
+        <v>0.1165855246418032</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1392147980092278</v>
+        <v>0.139659090044215</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>648</v>
@@ -2076,19 +2076,19 @@
         <v>656118</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>610072</v>
+        <v>609737</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>708150</v>
+        <v>702751</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0987747312032228</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09184286167702146</v>
+        <v>0.0917924333521572</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1066079304197406</v>
+        <v>0.10579512382115</v>
       </c>
     </row>
     <row r="23">
@@ -2419,19 +2419,19 @@
         <v>49339</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36883</v>
+        <v>37042</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>64525</v>
+        <v>66802</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05113143856778626</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03822291678113901</v>
+        <v>0.03838812241483234</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06686928013717117</v>
+        <v>0.0692294292909634</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>37</v>
@@ -2440,19 +2440,19 @@
         <v>40993</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30384</v>
+        <v>29076</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>56697</v>
+        <v>55577</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03108961957925872</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02304368556056852</v>
+        <v>0.02205188598049329</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04299992514051247</v>
+        <v>0.04215039059568516</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>83</v>
@@ -2461,19 +2461,19 @@
         <v>90331</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>72424</v>
+        <v>71529</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>111427</v>
+        <v>112479</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03955878803727116</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03171671097559736</v>
+        <v>0.03132446567422432</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04879729403316953</v>
+        <v>0.04925767850918574</v>
       </c>
     </row>
     <row r="5">
@@ -2490,19 +2490,19 @@
         <v>552150</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>518647</v>
+        <v>519540</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>583990</v>
+        <v>581557</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.572212417802897</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5374919847775071</v>
+        <v>0.5384173221140395</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6052091385790921</v>
+        <v>0.6026881743671788</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>541</v>
@@ -2511,19 +2511,19 @@
         <v>584183</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>546013</v>
+        <v>546635</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>619574</v>
+        <v>621378</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4430549103246699</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4141057400219415</v>
+        <v>0.4145779204885513</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4698960454302485</v>
+        <v>0.4712640338047943</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1057</v>
@@ -2532,19 +2532,19 @@
         <v>1136333</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1084850</v>
+        <v>1086586</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1181926</v>
+        <v>1188856</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4976336234183396</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4750873436159794</v>
+        <v>0.4758478399504595</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5175997762997856</v>
+        <v>0.5206349954664725</v>
       </c>
     </row>
     <row r="6">
@@ -2561,19 +2561,19 @@
         <v>282696</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>255940</v>
+        <v>254731</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>314509</v>
+        <v>310603</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2929676095358575</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2652392749327576</v>
+        <v>0.2639866262793014</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3259368448677824</v>
+        <v>0.3218883278412059</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>484</v>
@@ -2582,19 +2582,19 @@
         <v>512062</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>477409</v>
+        <v>475543</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>552721</v>
+        <v>547227</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3883570341986621</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3620752666315928</v>
+        <v>0.3606598991571837</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4191932175005759</v>
+        <v>0.4150262150661901</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>749</v>
@@ -2603,19 +2603,19 @@
         <v>794758</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>749515</v>
+        <v>750739</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>841373</v>
+        <v>844322</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3480478633073061</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.32823457047295</v>
+        <v>0.3287706262009239</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3684619008985082</v>
+        <v>0.3697533808637404</v>
       </c>
     </row>
     <row r="7">
@@ -2632,19 +2632,19 @@
         <v>80754</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>64794</v>
+        <v>62905</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>100486</v>
+        <v>102668</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08368853409345924</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06714808190393221</v>
+        <v>0.06519097283171066</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1041374871928492</v>
+        <v>0.106398174792054</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>168</v>
@@ -2653,19 +2653,19 @@
         <v>181297</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>158428</v>
+        <v>156266</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>209027</v>
+        <v>206616</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1374984358974093</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1201541867685275</v>
+        <v>0.1185151782645809</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1585299762081416</v>
+        <v>0.1567011468071523</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>241</v>
@@ -2674,19 +2674,19 @@
         <v>262051</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>231516</v>
+        <v>232115</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>294030</v>
+        <v>295609</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1147597252370831</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1013877365923024</v>
+        <v>0.101649997340255</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1287643097824414</v>
+        <v>0.1294560169068074</v>
       </c>
     </row>
     <row r="8">
@@ -2778,19 +2778,19 @@
         <v>96204</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>79457</v>
+        <v>78602</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>117130</v>
+        <v>116731</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04939571925552422</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04079738077989156</v>
+        <v>0.04035811004662482</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0601402701453827</v>
+        <v>0.0599353518203871</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>61</v>
@@ -2799,19 +2799,19 @@
         <v>65662</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>50442</v>
+        <v>50535</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>84966</v>
+        <v>81769</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03769490000407062</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02895749195810597</v>
+        <v>0.02901087411194013</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0487765409204272</v>
+        <v>0.04694144124165206</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>155</v>
@@ -2820,19 +2820,19 @@
         <v>161866</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>139328</v>
+        <v>137437</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>190081</v>
+        <v>189547</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04387142953474268</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03776287733866818</v>
+        <v>0.03725022697630052</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05151872385494434</v>
+        <v>0.05137396788564477</v>
       </c>
     </row>
     <row r="10">
@@ -2849,19 +2849,19 @@
         <v>1230984</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1183232</v>
+        <v>1186100</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1274821</v>
+        <v>1273488</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6320486349430309</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.607530408545911</v>
+        <v>0.6090031174248297</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6545569084256434</v>
+        <v>0.6538727354754433</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>903</v>
@@ -2870,19 +2870,19 @@
         <v>961772</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>923331</v>
+        <v>919244</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1006861</v>
+        <v>1006486</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5521260330704735</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5300586836138156</v>
+        <v>0.5277120888841002</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5780105038135355</v>
+        <v>0.5777956368627909</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2071</v>
@@ -2891,19 +2891,19 @@
         <v>2192755</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2131581</v>
+        <v>2133562</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2253895</v>
+        <v>2254542</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.594314900364759</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5777346575008625</v>
+        <v>0.5782717138538943</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6108862025872518</v>
+        <v>0.6110616398160649</v>
       </c>
     </row>
     <row r="11">
@@ -2920,19 +2920,19 @@
         <v>518976</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>473297</v>
+        <v>483591</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>557452</v>
+        <v>560379</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2664681622954109</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2430142534641971</v>
+        <v>0.2482999095491125</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2862235680147405</v>
+        <v>0.2877265384595327</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>508</v>
@@ -2941,19 +2941,19 @@
         <v>554095</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>514345</v>
+        <v>513912</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>595812</v>
+        <v>593931</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3180905200767123</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.295271109913521</v>
+        <v>0.2950225100392934</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3420387260923498</v>
+        <v>0.3409589799763008</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>996</v>
@@ -2962,19 +2962,19 @@
         <v>1073071</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1010314</v>
+        <v>1021075</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1129317</v>
+        <v>1127635</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2908405463417949</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2738312847955065</v>
+        <v>0.2767477777290263</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3060853179751045</v>
+        <v>0.305629475480429</v>
       </c>
     </row>
     <row r="12">
@@ -2991,19 +2991,19 @@
         <v>101446</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>81657</v>
+        <v>81290</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>122781</v>
+        <v>122843</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05208748350603394</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04192672341569694</v>
+        <v>0.04173843062891582</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06304184293292771</v>
+        <v>0.0630737777022235</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>149</v>
@@ -3012,19 +3012,19 @@
         <v>160413</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>135477</v>
+        <v>135789</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>185148</v>
+        <v>187016</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09208854684874361</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07777382905753644</v>
+        <v>0.07795255167338377</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1062883125985292</v>
+        <v>0.1073608505416969</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>241</v>
@@ -3033,19 +3033,19 @@
         <v>261859</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>232658</v>
+        <v>231571</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>296591</v>
+        <v>294457</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07097312375870345</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06305861500469093</v>
+        <v>0.06276412497422343</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0803866656667851</v>
+        <v>0.07980839560614147</v>
       </c>
     </row>
     <row r="13">
@@ -3137,19 +3137,19 @@
         <v>19702</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11737</v>
+        <v>11911</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>31444</v>
+        <v>31855</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0413134184063049</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02461212883133383</v>
+        <v>0.02497612229994044</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06593409430992128</v>
+        <v>0.06679722764443854</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>26</v>
@@ -3158,19 +3158,19 @@
         <v>28858</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>19226</v>
+        <v>19841</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>42658</v>
+        <v>40679</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06320727479256767</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04211169685941316</v>
+        <v>0.04345878049480365</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09343484985066149</v>
+        <v>0.08909865003867801</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>44</v>
@@ -3179,19 +3179,19 @@
         <v>48560</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>35705</v>
+        <v>36506</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>65895</v>
+        <v>64469</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05202180638387947</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03825053003345918</v>
+        <v>0.03910838621810662</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0705926080912198</v>
+        <v>0.0690643923909053</v>
       </c>
     </row>
     <row r="15">
@@ -3208,19 +3208,19 @@
         <v>314336</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>291485</v>
+        <v>290459</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>333705</v>
+        <v>336096</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.6591268984722093</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6112110710339175</v>
+        <v>0.6090587692585729</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6997403237972261</v>
+        <v>0.7047549608195894</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>266</v>
@@ -3229,19 +3229,19 @@
         <v>299128</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>276827</v>
+        <v>277043</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>317727</v>
+        <v>319528</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.6551808929242047</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.6063356553244676</v>
+        <v>0.6068076649997275</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.6959171983688135</v>
+        <v>0.6998623563909525</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>552</v>
@@ -3250,19 +3250,19 @@
         <v>613464</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>585627</v>
+        <v>581339</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>646722</v>
+        <v>644557</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.6571968886272461</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.6273754470849406</v>
+        <v>0.6227818841506169</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.6928251485372096</v>
+        <v>0.6905060869636682</v>
       </c>
     </row>
     <row r="16">
@@ -3279,19 +3279,19 @@
         <v>116190</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>98141</v>
+        <v>96699</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>137889</v>
+        <v>137407</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.243637778771526</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2057912601373974</v>
+        <v>0.20276658515224</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2891379356292696</v>
+        <v>0.2881265281209489</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>96</v>
@@ -3300,19 +3300,19 @@
         <v>103806</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>87254</v>
+        <v>86864</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>123176</v>
+        <v>124684</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2273661260246203</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1911134544693684</v>
+        <v>0.190259371256128</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2697928796107952</v>
+        <v>0.2730954611300944</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>205</v>
@@ -3321,19 +3321,19 @@
         <v>219996</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>193840</v>
+        <v>196757</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>246670</v>
+        <v>246994</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2356792369972426</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.207658466032234</v>
+        <v>0.2107836835797076</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2642546329158487</v>
+        <v>0.2646011338685224</v>
       </c>
     </row>
     <row r="17">
@@ -3350,19 +3350,19 @@
         <v>26669</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16071</v>
+        <v>16690</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>41115</v>
+        <v>40896</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05592190434995981</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03369975896044537</v>
+        <v>0.03499601767889306</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08621390437042992</v>
+        <v>0.08575403562313093</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>22</v>
@@ -3371,19 +3371,19 @@
         <v>24766</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16021</v>
+        <v>15930</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38609</v>
+        <v>36468</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0542457062586074</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03509028460777058</v>
+        <v>0.03489108883814598</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08456579667187662</v>
+        <v>0.0798757730039376</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>43</v>
@@ -3392,19 +3392,19 @@
         <v>51435</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>36807</v>
+        <v>38143</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>68932</v>
+        <v>70039</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05510206799163173</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03943074771890381</v>
+        <v>0.04086228468223756</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07384576994466932</v>
+        <v>0.07503153525343692</v>
       </c>
     </row>
     <row r="18">
@@ -3496,19 +3496,19 @@
         <v>165245</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>143230</v>
+        <v>142874</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>193426</v>
+        <v>193857</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04875267197638743</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0422575280011453</v>
+        <v>0.04215253255533199</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05706721587721345</v>
+        <v>0.05719444976431603</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>124</v>
@@ -3517,19 +3517,19 @@
         <v>135513</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>113002</v>
+        <v>111170</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>161107</v>
+        <v>160091</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03853042740593815</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03212989754005566</v>
+        <v>0.03160900238760978</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04580775660243853</v>
+        <v>0.04551860961693719</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>282</v>
@@ -3538,19 +3538,19 @@
         <v>300757</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>268188</v>
+        <v>269671</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>335768</v>
+        <v>337265</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04354712766556184</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03883134109379151</v>
+        <v>0.0390460487700838</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04861642908841229</v>
+        <v>0.04883310104472179</v>
       </c>
     </row>
     <row r="20">
@@ -3567,19 +3567,19 @@
         <v>2097470</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2035762</v>
+        <v>2040449</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2153828</v>
+        <v>2155845</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6188238474329806</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6006178079211932</v>
+        <v>0.6020006638246465</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6354512460328292</v>
+        <v>0.6360464434986383</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1710</v>
@@ -3588,19 +3588,19 @@
         <v>1845083</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1788626</v>
+        <v>1784758</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1910310</v>
+        <v>1903853</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5246131902079587</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5085608661243731</v>
+        <v>0.5074609968154324</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5431591797508304</v>
+        <v>0.5413234395235379</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3680</v>
@@ -3609,19 +3609,19 @@
         <v>3942552</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3863131</v>
+        <v>3854232</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4034091</v>
+        <v>4031039</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5708483027904112</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5593487052903569</v>
+        <v>0.5580602094840603</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.58410225508717</v>
+        <v>0.5836604714308723</v>
       </c>
     </row>
     <row r="21">
@@ -3638,19 +3638,19 @@
         <v>917862</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>862890</v>
+        <v>861561</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>969881</v>
+        <v>969157</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2708000115149717</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.254581318079482</v>
+        <v>0.2541893315583034</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2861474994751929</v>
+        <v>0.2859336663188359</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1088</v>
@@ -3659,19 +3659,19 @@
         <v>1169963</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1111585</v>
+        <v>1118863</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1223324</v>
+        <v>1227258</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3326561845663325</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.316057451006333</v>
+        <v>0.3181267290338674</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3478282654421722</v>
+        <v>0.3489467918082304</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1950</v>
@@ -3680,19 +3680,19 @@
         <v>2087825</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2005627</v>
+        <v>2005350</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2170096</v>
+        <v>2167533</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3022994583828137</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.290397851023266</v>
+        <v>0.2903577480360562</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3142115148669841</v>
+        <v>0.3138405197074775</v>
       </c>
     </row>
     <row r="22">
@@ -3709,19 +3709,19 @@
         <v>208869</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>179756</v>
+        <v>178959</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>243352</v>
+        <v>240286</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06162346907566029</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05303410780457157</v>
+        <v>0.05279885525808799</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07179707905153432</v>
+        <v>0.07089245390407332</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>339</v>
@@ -3730,19 +3730,19 @@
         <v>366476</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>329579</v>
+        <v>328927</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>406442</v>
+        <v>400872</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1042001978197706</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09370930514955082</v>
+        <v>0.09352398945562967</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1155636862587778</v>
+        <v>0.1139801876444696</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>525</v>
@@ -3751,19 +3751,19 @@
         <v>575345</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>531775</v>
+        <v>528930</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>629944</v>
+        <v>624221</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08330511116121318</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07699650752770647</v>
+        <v>0.07658453900012452</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09121060309889349</v>
+        <v>0.09038187631319808</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>28898</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19158</v>
+        <v>19753</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41343</v>
+        <v>41273</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03927966733487552</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02604052714016582</v>
+        <v>0.02684975122179309</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0561959032899019</v>
+        <v>0.05610078380634997</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -4115,19 +4115,19 @@
         <v>27814</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18003</v>
+        <v>18018</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41111</v>
+        <v>40045</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02859835107539911</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01851039897965694</v>
+        <v>0.01852596245592957</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04226949165939006</v>
+        <v>0.04117340437393972</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -4136,19 +4136,19 @@
         <v>56712</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>43347</v>
+        <v>43344</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>73738</v>
+        <v>73948</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.033198412221695</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02537445500166859</v>
+        <v>0.02537249745323419</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0431648737282328</v>
+        <v>0.04328780856615391</v>
       </c>
     </row>
     <row r="5">
@@ -4165,19 +4165,19 @@
         <v>418873</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>394196</v>
+        <v>394620</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>447601</v>
+        <v>444368</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.56935392021762</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5358111670844219</v>
+        <v>0.536387170190457</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6084024946114476</v>
+        <v>0.6040080341274627</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>415</v>
@@ -4186,19 +4186,19 @@
         <v>462381</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>427435</v>
+        <v>430061</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>493633</v>
+        <v>496147</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.475411935949313</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4394811896993837</v>
+        <v>0.4421812416123144</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5075450701861351</v>
+        <v>0.5101297684078214</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>841</v>
@@ -4207,19 +4207,19 @@
         <v>881254</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>835811</v>
+        <v>839400</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>919665</v>
+        <v>923342</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5158693909427635</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4892681580334332</v>
+        <v>0.4913685815371203</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5383545162672962</v>
+        <v>0.5405068405419085</v>
       </c>
     </row>
     <row r="6">
@@ -4236,19 +4236,19 @@
         <v>229195</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>204640</v>
+        <v>208046</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>253379</v>
+        <v>254015</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3115332245041397</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2781573503841662</v>
+        <v>0.2827865462553272</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3444058217793597</v>
+        <v>0.3452706470518724</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>336</v>
@@ -4257,19 +4257,19 @@
         <v>373314</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>344832</v>
+        <v>343157</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>408136</v>
+        <v>405032</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3838353855393426</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.354550095331346</v>
+        <v>0.352827915707238</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4196381259317319</v>
+        <v>0.4164472400515534</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>564</v>
@@ -4278,19 +4278,19 @@
         <v>602509</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>564788</v>
+        <v>561062</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>644681</v>
+        <v>639653</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3526974289718466</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.330616013304999</v>
+        <v>0.3284351833348127</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3773837713663988</v>
+        <v>0.374440819256609</v>
       </c>
     </row>
     <row r="7">
@@ -4307,19 +4307,19 @@
         <v>58733</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45402</v>
+        <v>44743</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74697</v>
+        <v>73195</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07983318794336483</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0617132128805791</v>
+        <v>0.06081660867655684</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1015322031644176</v>
+        <v>0.09949033960886271</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>96</v>
@@ -4328,19 +4328,19 @@
         <v>109080</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>88486</v>
+        <v>88974</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>130357</v>
+        <v>132400</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1121543274359453</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09097926940909196</v>
+        <v>0.0914819605456737</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.134031153080747</v>
+        <v>0.1361309005522745</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>154</v>
@@ -4349,19 +4349,19 @@
         <v>167813</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>142685</v>
+        <v>144187</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>196183</v>
+        <v>194086</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09823476786369488</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08352512696484342</v>
+        <v>0.08440426996967018</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1148417117124784</v>
+        <v>0.1136143691572078</v>
       </c>
     </row>
     <row r="8">
@@ -4453,19 +4453,19 @@
         <v>89758</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>70996</v>
+        <v>72127</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>109873</v>
+        <v>111310</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04346073507597521</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0343762830726877</v>
+        <v>0.0349237238885973</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05320030172997683</v>
+        <v>0.05389602003230468</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>81</v>
@@ -4474,19 +4474,19 @@
         <v>83399</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>66297</v>
+        <v>67606</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>104999</v>
+        <v>104071</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04244431882188834</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03374032703019906</v>
+        <v>0.03440692733569013</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05343736801562192</v>
+        <v>0.05296501297880687</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>164</v>
@@ -4495,19 +4495,19 @@
         <v>173157</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>149270</v>
+        <v>149473</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>200293</v>
+        <v>202253</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04296518297049609</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03703811789105352</v>
+        <v>0.0370884103250252</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04969848708879433</v>
+        <v>0.05018475546821416</v>
       </c>
     </row>
     <row r="10">
@@ -4524,19 +4524,19 @@
         <v>1325691</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1281916</v>
+        <v>1281084</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1369450</v>
+        <v>1367910</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6418980157239007</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6207018439420073</v>
+        <v>0.6202993655635207</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6630859334313367</v>
+        <v>0.6623402334439599</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1147</v>
@@ -4545,19 +4545,19 @@
         <v>1186872</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1145104</v>
+        <v>1143610</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1227887</v>
+        <v>1227875</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6040356760857899</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5827785202740691</v>
+        <v>0.5820181296439069</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6249096383473364</v>
+        <v>0.6249032632135312</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2406</v>
@@ -4566,19 +4566,19 @@
         <v>2512564</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2445420</v>
+        <v>2449467</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2570810</v>
+        <v>2573264</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.62343829309492</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6067781498961639</v>
+        <v>0.6077821767153579</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6378908352365315</v>
+        <v>0.6384997907104735</v>
       </c>
     </row>
     <row r="11">
@@ -4595,19 +4595,19 @@
         <v>527994</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>487278</v>
+        <v>488540</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>568165</v>
+        <v>568395</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.255654161526739</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2359392418207535</v>
+        <v>0.2365502100854287</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2751049087334608</v>
+        <v>0.2752162721906298</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>516</v>
@@ -4616,19 +4616,19 @@
         <v>541954</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>506321</v>
+        <v>501362</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>583378</v>
+        <v>581582</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2758168368394642</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.257682299024079</v>
+        <v>0.255158287642587</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2968989838283385</v>
+        <v>0.2959850742983662</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1006</v>
@@ -4637,19 +4637,19 @@
         <v>1069948</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1015268</v>
+        <v>1009301</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1133311</v>
+        <v>1123903</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2654844413585871</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2519166827795324</v>
+        <v>0.2504361381978235</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2812066636526877</v>
+        <v>0.2788723281719597</v>
       </c>
     </row>
     <row r="12">
@@ -4666,19 +4666,19 @@
         <v>121824</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>100163</v>
+        <v>100260</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>145680</v>
+        <v>145085</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05898708767338504</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04849891713176258</v>
+        <v>0.0485457120457208</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07053798106325826</v>
+        <v>0.07024988574371785</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>143</v>
@@ -4687,19 +4687,19 @@
         <v>152679</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>128275</v>
+        <v>129296</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>177573</v>
+        <v>178374</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07770316825285752</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06528306681454289</v>
+        <v>0.06580251045467368</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0903724945508295</v>
+        <v>0.09078005996727206</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>253</v>
@@ -4708,19 +4708,19 @@
         <v>274503</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>243329</v>
+        <v>244196</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>308103</v>
+        <v>306872</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06811208257599674</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06037676079281003</v>
+        <v>0.06059204100151751</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07644906502541839</v>
+        <v>0.07614356812096677</v>
       </c>
     </row>
     <row r="13">
@@ -4812,19 +4812,19 @@
         <v>23970</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15736</v>
+        <v>15651</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>35370</v>
+        <v>35568</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04406240387065287</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02892570436879555</v>
+        <v>0.02877059852863776</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06501772070976307</v>
+        <v>0.06538129272163513</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -4833,19 +4833,19 @@
         <v>21745</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13872</v>
+        <v>13702</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>32944</v>
+        <v>32422</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03959738977990247</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02526149604827342</v>
+        <v>0.02495187082502436</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05999254914035718</v>
+        <v>0.05904224586016611</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>43</v>
@@ -4854,19 +4854,19 @@
         <v>45715</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>33244</v>
+        <v>34437</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>58843</v>
+        <v>61034</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04181940979354566</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03041110643257168</v>
+        <v>0.0315025528494735</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05382942936082411</v>
+        <v>0.05583357673912387</v>
       </c>
     </row>
     <row r="15">
@@ -4883,19 +4883,19 @@
         <v>366485</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>344619</v>
+        <v>345064</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>389208</v>
+        <v>389081</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.6736798464945328</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6334846590151426</v>
+        <v>0.6343032378139534</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7154499478895642</v>
+        <v>0.7152158325962049</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>336</v>
@@ -4904,19 +4904,19 @@
         <v>345945</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>323786</v>
+        <v>323064</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>368046</v>
+        <v>367733</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.6299756431421328</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.5896234981548736</v>
+        <v>0.5883096484791865</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.6702234308445029</v>
+        <v>0.6696519261323298</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>674</v>
@@ -4925,19 +4925,19 @@
         <v>712431</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>680336</v>
+        <v>676039</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>746344</v>
+        <v>744765</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.6517250962358058</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.6223654220028956</v>
+        <v>0.6184346213823122</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.6827490167292773</v>
+        <v>0.6813037919559551</v>
       </c>
     </row>
     <row r="16">
@@ -4954,19 +4954,19 @@
         <v>123002</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>103979</v>
+        <v>103291</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>145220</v>
+        <v>143349</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2261039603533974</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1911357928800533</v>
+        <v>0.1898721306326782</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2669459840078537</v>
+        <v>0.2635068144359863</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>130</v>
@@ -4975,19 +4975,19 @@
         <v>137773</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>117963</v>
+        <v>118680</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>160165</v>
+        <v>160073</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2508890184316133</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2148148401821018</v>
+        <v>0.2161200991894424</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2916643538904194</v>
+        <v>0.2914984050291414</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>244</v>
@@ -4996,19 +4996,19 @@
         <v>260775</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>233035</v>
+        <v>232880</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>290036</v>
+        <v>292724</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2385547023533747</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2131784608821173</v>
+        <v>0.2130362453497391</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2653220952785036</v>
+        <v>0.2677813135925959</v>
       </c>
     </row>
     <row r="17">
@@ -5025,19 +5025,19 @@
         <v>30548</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20198</v>
+        <v>21080</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>43745</v>
+        <v>44946</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0561537892814169</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03712914234167795</v>
+        <v>0.03875054638646282</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08041299586909771</v>
+        <v>0.08261973331005419</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>39</v>
@@ -5046,19 +5046,19 @@
         <v>43677</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>31478</v>
+        <v>32218</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>59856</v>
+        <v>60065</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07953794864635136</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05732256107241202</v>
+        <v>0.05866974668778042</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1089989646855451</v>
+        <v>0.1093801079087791</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>64</v>
@@ -5067,19 +5067,19 @@
         <v>74225</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>56321</v>
+        <v>57629</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>94290</v>
+        <v>92036</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06790079161727383</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05152201275153091</v>
+        <v>0.0527187046588076</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08625561316810534</v>
+        <v>0.08419376463941207</v>
       </c>
     </row>
     <row r="18">
@@ -5171,19 +5171,19 @@
         <v>142626</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>121146</v>
+        <v>119383</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>169303</v>
+        <v>169031</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0426389956885671</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03621719851992711</v>
+        <v>0.03569037394648691</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05061424721602707</v>
+        <v>0.05053283892053169</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>127</v>
@@ -5192,19 +5192,19 @@
         <v>132958</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>111535</v>
+        <v>111314</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>155424</v>
+        <v>158728</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03813362551995784</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03198941608412884</v>
+        <v>0.03192582960623832</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04457703385774929</v>
+        <v>0.04552474992568477</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>261</v>
@@ -5213,19 +5213,19 @@
         <v>275584</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>246013</v>
+        <v>246703</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>312435</v>
+        <v>310105</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04033959846324543</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03601093584383892</v>
+        <v>0.03611204592285645</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04573370490466655</v>
+        <v>0.04539262122662693</v>
       </c>
     </row>
     <row r="20">
@@ -5242,19 +5242,19 @@
         <v>2111050</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2054907</v>
+        <v>2058892</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2168546</v>
+        <v>2166752</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6311113441603557</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6143271990087191</v>
+        <v>0.6155185464897147</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6483001353960746</v>
+        <v>0.6477637782655645</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1898</v>
@@ -5263,19 +5263,19 @@
         <v>1995198</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1932599</v>
+        <v>1938342</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2048684</v>
+        <v>2054385</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.572241846576766</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5542878707971109</v>
+        <v>0.5559351185425838</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5875820727285042</v>
+        <v>0.589217331185881</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3921</v>
@@ -5284,19 +5284,19 @@
         <v>4106248</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4023259</v>
+        <v>4023306</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4192495</v>
+        <v>4182564</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6010662303663937</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.588918526472846</v>
+        <v>0.5889253980291386</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6136909779495551</v>
+        <v>0.6122373529458083</v>
       </c>
     </row>
     <row r="21">
@@ -5313,19 +5313,19 @@
         <v>880191</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>827535</v>
+        <v>829136</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>928679</v>
+        <v>929088</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2631384362224139</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2473968161077128</v>
+        <v>0.2478754194660632</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2776344050768377</v>
+        <v>0.2777566826163464</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>982</v>
@@ -5334,19 +5334,19 @@
         <v>1053041</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>997632</v>
+        <v>995268</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1109600</v>
+        <v>1106703</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3020223005771366</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2861305101632872</v>
+        <v>0.2854524717198053</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3182439030291986</v>
+        <v>0.3174131530633248</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1814</v>
@@ -5355,19 +5355,19 @@
         <v>1933232</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1855059</v>
+        <v>1862261</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2010407</v>
+        <v>2014757</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2829835203022938</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2715407444062629</v>
+        <v>0.2725948453457711</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2942803330715964</v>
+        <v>0.294917038449182</v>
       </c>
     </row>
     <row r="22">
@@ -5384,19 +5384,19 @@
         <v>211105</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>183126</v>
+        <v>185134</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>243877</v>
+        <v>245193</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06311122392866321</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05474666178446335</v>
+        <v>0.05534704815885649</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0729083909187289</v>
+        <v>0.07330203728384367</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>278</v>
@@ -5405,19 +5405,19 @@
         <v>305437</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>272268</v>
+        <v>275079</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>341611</v>
+        <v>342399</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08760222732613959</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07808920792422042</v>
+        <v>0.07889532376710774</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09797735469624469</v>
+        <v>0.09820345054331536</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>471</v>
@@ -5426,19 +5426,19 @@
         <v>516542</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>469229</v>
+        <v>475442</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>561494</v>
+        <v>563017</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07561065086806701</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06868504155365808</v>
+        <v>0.069594421008458</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08219059232839072</v>
+        <v>0.08241354771403131</v>
       </c>
     </row>
     <row r="23">
@@ -5769,19 +5769,19 @@
         <v>29372</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20445</v>
+        <v>20831</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40633</v>
+        <v>41282</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05085270392910246</v>
+        <v>0.05085270392910247</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0353975993570937</v>
+        <v>0.036064824927141</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07034859733274691</v>
+        <v>0.0714723517620106</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>51</v>
@@ -5790,19 +5790,19 @@
         <v>30691</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22615</v>
+        <v>23019</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40158</v>
+        <v>40795</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.03747240966924004</v>
+        <v>0.03747240966924003</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02761142043227853</v>
+        <v>0.02810446902086297</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04903018103616191</v>
+        <v>0.04980825227431753</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>86</v>
@@ -5811,19 +5811,19 @@
         <v>60063</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48265</v>
+        <v>48715</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>73861</v>
+        <v>74625</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04300595775032337</v>
+        <v>0.04300595775032336</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03455804065687648</v>
+        <v>0.03488049540658658</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05288529157229058</v>
+        <v>0.05343245151942626</v>
       </c>
     </row>
     <row r="5">
@@ -5840,19 +5840,19 @@
         <v>299171</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>275266</v>
+        <v>274487</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>322294</v>
+        <v>321405</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5179658840149759</v>
+        <v>0.517965884014976</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4765783061514401</v>
+        <v>0.4752289811592724</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5579996614703245</v>
+        <v>0.556459987068557</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>689</v>
@@ -5861,19 +5861,19 @@
         <v>408379</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>386490</v>
+        <v>384659</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>431187</v>
+        <v>431247</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4986085930902215</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4718826986157775</v>
+        <v>0.4696470767443541</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5264551762936327</v>
+        <v>0.5265282223230098</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1038</v>
@@ -5882,19 +5882,19 @@
         <v>707550</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>676372</v>
+        <v>677140</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>736784</v>
+        <v>742895</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5066139850473299</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4842896874989273</v>
+        <v>0.4848402427263829</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5275453781189758</v>
+        <v>0.5319215676152275</v>
       </c>
     </row>
     <row r="6">
@@ -5911,19 +5911,19 @@
         <v>190731</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>169850</v>
+        <v>169363</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>212178</v>
+        <v>212824</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3302203273157628</v>
+        <v>0.330220327315763</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2940679731761845</v>
+        <v>0.2932241258106841</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3673518670624851</v>
+        <v>0.3684699118723708</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>536</v>
@@ -5932,19 +5932,19 @@
         <v>296740</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>275990</v>
+        <v>277922</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>318056</v>
+        <v>319296</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.3623029591571982</v>
+        <v>0.3623029591571981</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3369679413889556</v>
+        <v>0.3393277294359724</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3883285930779533</v>
+        <v>0.3898429990652258</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>776</v>
@@ -5953,19 +5953,19 @@
         <v>487471</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>458583</v>
+        <v>457761</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>517132</v>
+        <v>520842</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3490348813097008</v>
+        <v>0.3490348813097007</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3283505285580971</v>
+        <v>0.3277619086563004</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3702722093383851</v>
+        <v>0.3729287285225749</v>
       </c>
     </row>
     <row r="7">
@@ -5982,19 +5982,19 @@
         <v>58314</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44327</v>
+        <v>44641</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74665</v>
+        <v>73232</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1009610847401587</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07674419273094711</v>
+        <v>0.07728862314139258</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.129270282619334</v>
+        <v>0.1267896132170801</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>146</v>
@@ -6003,19 +6003,19 @@
         <v>83227</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>70925</v>
+        <v>71213</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>97257</v>
+        <v>97404</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1016160380833403</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08659567580103313</v>
+        <v>0.08694736652699821</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1187455851829673</v>
+        <v>0.1189247768990291</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>212</v>
@@ -6024,19 +6024,19 @@
         <v>141541</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>123893</v>
+        <v>122898</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>162157</v>
+        <v>161725</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.101345175892646</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08870913174170078</v>
+        <v>0.08799631233677879</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1161060248950763</v>
+        <v>0.1157970025304379</v>
       </c>
     </row>
     <row r="8">
@@ -6128,19 +6128,19 @@
         <v>126796</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>100737</v>
+        <v>97410</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>162562</v>
+        <v>161057</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05689559566172477</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0452022810153645</v>
+        <v>0.0437097287305001</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07294435483880432</v>
+        <v>0.07226896022324261</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>160</v>
@@ -6149,19 +6149,19 @@
         <v>150881</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>129152</v>
+        <v>127617</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>179334</v>
+        <v>178555</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06957210825070655</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05955265566581664</v>
+        <v>0.05884482450384222</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08269170007957539</v>
+        <v>0.08233272307911255</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>240</v>
@@ -6170,19 +6170,19 @@
         <v>277677</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>239040</v>
+        <v>242499</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>321255</v>
+        <v>318578</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.0631475543729421</v>
+        <v>0.06314755437294212</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05436100999860807</v>
+        <v>0.05514757765055545</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07305763131188704</v>
+        <v>0.07244888020414642</v>
       </c>
     </row>
     <row r="10">
@@ -6199,19 +6199,19 @@
         <v>1255086</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1204147</v>
+        <v>1200066</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1305015</v>
+        <v>1308507</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5631788278208586</v>
+        <v>0.5631788278208587</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5403216741958311</v>
+        <v>0.5384903509764424</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5855830620468037</v>
+        <v>0.5871499433175654</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1573</v>
@@ -6220,19 +6220,19 @@
         <v>1216117</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1175461</v>
+        <v>1170313</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1259064</v>
+        <v>1260107</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5607577859824272</v>
+        <v>0.5607577859824271</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5420108355413132</v>
+        <v>0.5396371279897413</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.580560856654994</v>
+        <v>0.5810417956734842</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2680</v>
@@ -6241,19 +6241,19 @@
         <v>2471203</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2406213</v>
+        <v>2402029</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2540639</v>
+        <v>2536673</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5619847885686782</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5472052198594968</v>
+        <v>0.546253715276828</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5777755036668621</v>
+        <v>0.5768736934245255</v>
       </c>
     </row>
     <row r="11">
@@ -6270,19 +6270,19 @@
         <v>693371</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>646069</v>
+        <v>639564</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>745064</v>
+        <v>742106</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3111278426077915</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2899024872467005</v>
+        <v>0.2869835955896309</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3343232701030948</v>
+        <v>0.3329958834334691</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>953</v>
@@ -6291,19 +6291,19 @@
         <v>646798</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>609111</v>
+        <v>612846</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>686841</v>
+        <v>687507</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2982416708960576</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.280864346142772</v>
+        <v>0.282586631472304</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3167057146938831</v>
+        <v>0.3170128266464006</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1603</v>
@@ -6312,19 +6312,19 @@
         <v>1340169</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1278711</v>
+        <v>1277408</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1403516</v>
+        <v>1406361</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3047724816264564</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2907960173334176</v>
+        <v>0.2904997100865119</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.319178372330994</v>
+        <v>0.319825397795183</v>
       </c>
     </row>
     <row r="12">
@@ -6341,19 +6341,19 @@
         <v>153321</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>129554</v>
+        <v>130465</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>180387</v>
+        <v>179398</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06879773390962508</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0581333564052022</v>
+        <v>0.05854209166139137</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08094299399997965</v>
+        <v>0.08049916161894667</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>231</v>
@@ -6362,19 +6362,19 @@
         <v>154907</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>135597</v>
+        <v>135873</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>176948</v>
+        <v>177090</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07142843487080873</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06252454209230761</v>
+        <v>0.06265178963817437</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08159170789062435</v>
+        <v>0.0816570851537249</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>384</v>
@@ -6383,19 +6383,19 @@
         <v>308228</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>276834</v>
+        <v>275288</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>342118</v>
+        <v>342582</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.07009517543192322</v>
+        <v>0.0700951754319232</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06295584213971409</v>
+        <v>0.06260422300267869</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07780220288915277</v>
+        <v>0.07790787122211006</v>
       </c>
     </row>
     <row r="13">
@@ -6487,19 +6487,19 @@
         <v>35442</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24339</v>
+        <v>24468</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49193</v>
+        <v>49231</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.04980768237911423</v>
+        <v>0.04980768237911422</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03420451087898441</v>
+        <v>0.03438467062471843</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06913074491128096</v>
+        <v>0.06918519569139832</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>43</v>
@@ -6508,19 +6508,19 @@
         <v>35400</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26287</v>
+        <v>25343</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>48803</v>
+        <v>49953</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04817068165793414</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03577126955791277</v>
+        <v>0.03448550239368958</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06640989127689939</v>
+        <v>0.06797445833261724</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>74</v>
@@ -6529,19 +6529,19 @@
         <v>70842</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>53790</v>
+        <v>54269</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>88792</v>
+        <v>88210</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.04897600293231887</v>
+        <v>0.04897600293231886</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03718702019780408</v>
+        <v>0.03751849889169024</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06138572611547641</v>
+        <v>0.06098352832813391</v>
       </c>
     </row>
     <row r="15">
@@ -6558,19 +6558,19 @@
         <v>425591</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>394795</v>
+        <v>395992</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>450673</v>
+        <v>453726</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5980864108598372</v>
+        <v>0.598086410859837</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5548087043637355</v>
+        <v>0.5564913999922736</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6333343764019426</v>
+        <v>0.637624899141657</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>602</v>
@@ -6579,19 +6579,19 @@
         <v>443289</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>417223</v>
+        <v>421235</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>464662</v>
+        <v>468955</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.6032154442290217</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.5677450832578546</v>
+        <v>0.5732043291698801</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.6322985153493164</v>
+        <v>0.638140201825294</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1008</v>
@@ -6600,19 +6600,19 @@
         <v>868880</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>830237</v>
+        <v>832915</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>901839</v>
+        <v>905109</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.6006922201181272</v>
+        <v>0.6006922201181271</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.573977286075433</v>
+        <v>0.5758282498226173</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.6234785243502293</v>
+        <v>0.6257391576843705</v>
       </c>
     </row>
     <row r="16">
@@ -6629,19 +6629,19 @@
         <v>216269</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>192975</v>
+        <v>192247</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>249513</v>
+        <v>243566</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3039250735190903</v>
+        <v>0.3039250735190902</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2711895984611679</v>
+        <v>0.2701664359655989</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3506434227627171</v>
+        <v>0.3422859846801149</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>289</v>
@@ -6650,19 +6650,19 @@
         <v>203249</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>183186</v>
+        <v>180472</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>225214</v>
+        <v>224346</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2765754026638822</v>
+        <v>0.2765754026638821</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2492742024670624</v>
+        <v>0.2455811166438313</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3064649364418767</v>
+        <v>0.305283451033582</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>496</v>
@@ -6671,19 +6671,19 @@
         <v>419518</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>387688</v>
+        <v>384254</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>456237</v>
+        <v>453597</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2900300526845868</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.268024909620085</v>
+        <v>0.2656506778076042</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3154153234664503</v>
+        <v>0.3135901985889999</v>
       </c>
     </row>
     <row r="17">
@@ -6700,19 +6700,19 @@
         <v>34285</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24296</v>
+        <v>24191</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>46669</v>
+        <v>46661</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.04818083324195828</v>
+        <v>0.04818083324195829</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03414341407539366</v>
+        <v>0.03399548616728615</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06558469221092074</v>
+        <v>0.06557355600078688</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>70</v>
@@ -6721,19 +6721,19 @@
         <v>52939</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41455</v>
+        <v>39922</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>68031</v>
+        <v>67827</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07203847144916185</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05641047755628675</v>
+        <v>0.0543243435059038</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09257432879238964</v>
+        <v>0.09229679265464737</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>107</v>
@@ -6742,19 +6742,19 @@
         <v>87224</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>72564</v>
+        <v>72140</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>107124</v>
+        <v>105319</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.06030172426496724</v>
+        <v>0.06030172426496723</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05016624462975621</v>
+        <v>0.04987349232287596</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07405956270475385</v>
+        <v>0.07281167230085579</v>
       </c>
     </row>
     <row r="18">
@@ -6846,19 +6846,19 @@
         <v>191610</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>160872</v>
+        <v>159615</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>231411</v>
+        <v>227640</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.0544696210887157</v>
+        <v>0.05446962108871572</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04573144814495411</v>
+        <v>0.04537416948429764</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06578388128115242</v>
+        <v>0.06471184687766944</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>254</v>
@@ -6867,19 +6867,19 @@
         <v>216972</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>189446</v>
+        <v>189211</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>247225</v>
+        <v>244729</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05828481233406127</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05089053497495302</v>
+        <v>0.05082737898026715</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06641147862644997</v>
+        <v>0.06574094970492816</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>400</v>
@@ -6888,19 +6888,19 @@
         <v>408583</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>367821</v>
+        <v>363533</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>455429</v>
+        <v>452170</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.05643119309035708</v>
+        <v>0.05643119309035709</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05080135721178683</v>
+        <v>0.05020922085776637</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06290142516537511</v>
+        <v>0.06245127665523811</v>
       </c>
     </row>
     <row r="20">
@@ -6917,19 +6917,19 @@
         <v>1979847</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1919887</v>
+        <v>1911689</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2042938</v>
+        <v>2044101</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5628164734822915</v>
+        <v>0.5628164734822914</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5457715899702276</v>
+        <v>0.5434410047870143</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5807516192158585</v>
+        <v>0.5810821008693137</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2864</v>
@@ -6938,19 +6938,19 @@
         <v>2067786</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2013851</v>
+        <v>2011461</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2120729</v>
+        <v>2116759</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.5554654394999291</v>
+        <v>0.5554654394999292</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5409769178395559</v>
+        <v>0.5403350149313426</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5696873696695275</v>
+        <v>0.568620944712201</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4726</v>
@@ -6959,19 +6959,19 @@
         <v>4047633</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3965458</v>
+        <v>3963770</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4129815</v>
+        <v>4128441</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5590369558865463</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.547687295678263</v>
+        <v>0.5474542486066756</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5703874649708062</v>
+        <v>0.5701976081786837</v>
       </c>
     </row>
     <row r="21">
@@ -6988,19 +6988,19 @@
         <v>1100372</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1041230</v>
+        <v>1037167</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1160051</v>
+        <v>1165159</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3128056751777971</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2959932823859955</v>
+        <v>0.2948381657902881</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3297708230419618</v>
+        <v>0.3312230186486534</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1778</v>
@@ -7009,19 +7009,19 @@
         <v>1146787</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1101404</v>
+        <v>1102708</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1198890</v>
+        <v>1199426</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3080591113643906</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2958681382995257</v>
+        <v>0.2962183672686388</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3220556024990548</v>
+        <v>0.3221995594471789</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2875</v>
@@ -7030,19 +7030,19 @@
         <v>2247159</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2172153</v>
+        <v>2168689</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2322960</v>
+        <v>2326504</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3103652400641599</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3000058698340543</v>
+        <v>0.2995275047063067</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3208344629571925</v>
+        <v>0.3213240290177592</v>
       </c>
     </row>
     <row r="22">
@@ -7059,19 +7059,19 @@
         <v>245920</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>218548</v>
+        <v>214738</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>277016</v>
+        <v>280088</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06990823025119573</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06212723404362416</v>
+        <v>0.06104420670472682</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07874798976557518</v>
+        <v>0.07962145667610038</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>447</v>
@@ -7080,19 +7080,19 @@
         <v>291074</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>264412</v>
+        <v>260940</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>321370</v>
+        <v>320955</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.07819063680161907</v>
+        <v>0.07819063680161908</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07102845366435424</v>
+        <v>0.07009581732265134</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0863289985114154</v>
+        <v>0.0862175996230308</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>703</v>
@@ -7101,19 +7101,19 @@
         <v>536994</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>496859</v>
+        <v>497635</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>581479</v>
+        <v>582281</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07416661095893666</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06862340094871595</v>
+        <v>0.06873066266989418</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08031064091414804</v>
+        <v>0.08042145382724399</v>
       </c>
     </row>
     <row r="23">
